--- a/public/data/profit/profit_table_namibia.xlsx
+++ b/public/data/profit/profit_table_namibia.xlsx
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-7.51</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-11.34</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-10.41</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -3115,22 +3115,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-15.66</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-9.38</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-9.35</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-8.51</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-9.42</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-12.69</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-15.83</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.14</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-3.6</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-11.92</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -3355,22 +3355,22 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-15.5</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-4.15</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-3.98</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-4.39</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-1.7</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>-1.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.69</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-5.65</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-22.96</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -3515,22 +3515,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-24.59</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>-6.14</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>-6.16</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>-5.7</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>-6.16</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>-5.97</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>-6.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-13.61</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-15.47</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-24.35</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-24.43</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.49</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>-1.49</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -5657,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>-3.37</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>-3.38</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -9595,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>-11.24</v>
+        <v>0</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
@@ -9817,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>37.3</v>
+        <v>135.04</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -9835,22 +9835,22 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>-1.26</v>
+        <v>44.73</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>-18.64</v>
+        <v>0</v>
       </c>
       <c r="O106" t="n">
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>-33.78</v>
+        <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>-22.13</v>
+        <v>0</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
@@ -9859,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>-34.84</v>
+        <v>0</v>
       </c>
       <c r="U106" t="n">
         <v>0</v>
@@ -9897,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>-12.99</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>-15.14</v>
+        <v>0</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>-13.05</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -9995,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>-13.17</v>
+        <v>0</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
